--- a/Input_File_Details.xlsx
+++ b/Input_File_Details.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aminaly/Box Sync/mountain_biodiversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F243CF6-C544-C241-A37E-4D06E82134E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F1A8F-D218-3A4D-A230-C74C763E96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15400" xr2:uid="{9ED7EC5D-A110-074C-8640-7894F1C4D099}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -152,6 +152,27 @@
   </si>
   <si>
     <t>Filtered WDPA data as provided directly by WCMC</t>
+  </si>
+  <si>
+    <t>Intermediate Range Mapping</t>
+  </si>
+  <si>
+    <t>data/GMBA/GMBA_Inventory_v2_intermediate_map.csv</t>
+  </si>
+  <si>
+    <t>intermediate map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maps GMBA_V2_IDs to their parent range for a more coarse resolution. </t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Data_Prep_for_Visuals</t>
+  </si>
+  <si>
+    <t>Intersection_Official; Intersection_GMBA</t>
   </si>
 </sst>
 </file>
@@ -512,14 +533,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252C7CC-F94E-DE44-8862-F1C786DCB961}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
     <col min="3" max="3" width="25.1640625" customWidth="1"/>
   </cols>
@@ -549,7 +571,9 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -567,6 +591,9 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -584,6 +611,9 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -601,6 +631,9 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -618,6 +651,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -635,50 +671,59 @@
       <c r="E7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
+      <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
         <v>32</v>
@@ -689,15 +734,29 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>32</v>
       </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Input_File_Details.xlsx
+++ b/Input_File_Details.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aminaly/Box Sync/mountain_biodiversity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227F1A8F-D218-3A4D-A230-C74C763E96B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD965E7-C77D-9E4A-8E56-6A206951F56A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15400" xr2:uid="{9ED7EC5D-A110-074C-8640-7894F1C4D099}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -91,12 +91,6 @@
     <t>pas</t>
   </si>
   <si>
-    <t>/data/GMBA/GMBA_Inventory_v2.0_basic.shp</t>
-  </si>
-  <si>
-    <t>Basic GMBA Files</t>
-  </si>
-  <si>
     <t>KBA Shapefiles</t>
   </si>
   <si>
@@ -124,18 +118,6 @@
     <t>Conservative GMBA</t>
   </si>
   <si>
-    <t xml:space="preserve">292 Selection </t>
-  </si>
-  <si>
-    <t>/data/GMBA/GMBA_Inventory_V2_20210422_Conservative/GMBA_Inventory_V2_20210422.shp</t>
-  </si>
-  <si>
-    <t>/data/GMBA/Gmba_Inventory_GME_210420_Sel_292_attr/Gmba_Inventory_GME_210420_Sel_292_attr.shp</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
     <t>gmba</t>
   </si>
   <si>
@@ -173,6 +155,27 @@
   </si>
   <si>
     <t>Intersection_Official; Intersection_GMBA</t>
+  </si>
+  <si>
+    <t>/data/GMBA/GMBA_Inventory_v2.0_broad_300.shp</t>
+  </si>
+  <si>
+    <t>/data/GMBA/GMBA_Inventory_v2.0_standard_basic.shp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Broad GMBA </t>
+  </si>
+  <si>
+    <t>Used to mimic the mountain attribution in Official SDG 15.4.1 calculation</t>
+  </si>
+  <si>
+    <t>Used for GMBA calculation of SDG 15.4.1. More Conservative mountain definition</t>
+  </si>
+  <si>
+    <t>Intersection_Official</t>
+  </si>
+  <si>
+    <t>Intersection_GMBA</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C252C7CC-F94E-DE44-8862-F1C786DCB961}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -566,13 +569,13 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -586,13 +589,13 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -606,53 +609,53 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -663,36 +666,36 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -720,44 +723,36 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
